--- a/biology/Histoire de la zoologie et de la botanique/John_Curtis_(entomologiste)/John_Curtis_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Curtis_(entomologiste)/John_Curtis_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Curtis est un entomologiste et un artiste britannique, né le 3 septembre 1791 à Norwich et mort le 6 octobre 1862 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est auprès de son père, Charles, que le jeune John Curtis apprend la gravure. À l’âge de 16 ans, il entre en apprentissage chez un notaire et consacre son temps libre à étudier et à dessiner les insectes. Son intérêt allant croissant, il quitte son travail pour venir à Londres vivre de ses œuvres entomologiques.
 Sa plus grande réalisation est sa British Entomology - being illustrations and descriptions of the genera of insects found in Great Britain and Ireland que certains considèrent comme l’un des plus beaux ouvrages sur les insectes du XIXe siècle. Ce livre paraît sous forme de livraison mensuelle et par souscription, de 1824 à 1839, chaque livraison comprenant quatre planches et deux pages de texte. Le total décrira 769 espèces d’insectes.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John Curtis (entomologist) » (voir la liste des auteurs) (version du 24 février 2006).
 Notices d'autorité : VIAF ISNI IdRef LCCN GND Italie Japon Belgique Pays-Bas Israël NUKAT Norvège WorldCat 
